--- a/prodinfo/mea/sa/output/res20260105.xlsx
+++ b/prodinfo/mea/sa/output/res20260105.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-05 09:55:29</v>
+        <v>2026-01-05 10:07:19</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-05 09:55:33</v>
+        <v>2026-01-05 10:07:24</v>
       </c>
       <c r="B3" t="str">
         <v>沙特</v>
@@ -471,9 +471,791 @@
         <v>5199</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2026-01-05 10:07:28</v>
+      </c>
+      <c r="B4" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D4" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/apple-iphone-17-pro-5g-6-3-inch-512gb-deep-blue/p/100460646</v>
+      </c>
+      <c r="E4" t="str">
+        <v>APPLE iPhone 17 Pro 12+512</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v>6199</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2026-01-05 10:07:32</v>
+      </c>
+      <c r="B5" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D5" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-5g-256-gb-desert-gold/p/100415761</v>
+      </c>
+      <c r="E5" t="str">
+        <v>HONOR 400 12+256</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2026-01-05 10:07:37</v>
+      </c>
+      <c r="B6" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D6" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-pro-5g-512-gb-midnight-black/p/100415747</v>
+      </c>
+      <c r="E6" t="str">
+        <v>HONOR 400 Pro 12+512</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2026-01-05 10:07:41</v>
+      </c>
+      <c r="B7" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D7" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-magic-8-pro-5g-512-gb-sunrise-gold/p/100487672</v>
+      </c>
+      <c r="E7" t="str">
+        <v>HONOR Magic 8 Pro 12+512</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2026-01-05 10:07:45</v>
+      </c>
+      <c r="B8" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D8" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9c-5g-256gb-titanium-black/p/100389394</v>
+      </c>
+      <c r="E8" t="str">
+        <v>HONOR X9C 12+256</v>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2026-01-05 10:07:50</v>
+      </c>
+      <c r="B9" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D9" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9d-5g-256-gb-reddish-brown/p/100477711</v>
+      </c>
+      <c r="E9" t="str">
+        <v>HONOR X9D 12+256</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2026-01-05 10:07:55</v>
+      </c>
+      <c r="B10" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D10" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-4g-lte-256-gb-black/p/100392611</v>
+      </c>
+      <c r="E10" t="str">
+        <v>HUAWEI nova 13  12+256</v>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2026-01-05 10:07:59</v>
+      </c>
+      <c r="B11" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D11" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-pro-4g-lte-512-gb-white/p/100392622</v>
+      </c>
+      <c r="E11" t="str">
+        <v>HUAWEI nova 13 Pro 12+512</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2026-01-05 10:08:04</v>
+      </c>
+      <c r="B12" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D12" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-4g-lte-256-gb-white/p/100477716</v>
+      </c>
+      <c r="E12" t="str">
+        <v>HUAWEI nova 14 12+256</v>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2026-01-05 10:08:08</v>
+      </c>
+      <c r="B13" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D13" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-pro-4g-lte-512-gb-black/p/100477715</v>
+      </c>
+      <c r="E13" t="str">
+        <v>HUAWEI nova 14 Pro 12+512</v>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2026-01-05 10:08:12</v>
+      </c>
+      <c r="B14" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D14" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-4g-lte-256-gb-black/p/100466488</v>
+      </c>
+      <c r="E14" t="str">
+        <v>HUAWEI Pura 80 12+256</v>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2026-01-05 10:08:17</v>
+      </c>
+      <c r="B15" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D15" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-pro-4g-lte-512-gb-glazed-black/p/100455032</v>
+      </c>
+      <c r="E15" t="str">
+        <v>HUAWEI Pura 80 Pro 12+512</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2026-01-05 10:08:21</v>
+      </c>
+      <c r="B16" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D16" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-ultra-4g-lte-512-gb-prestige-gold/p/100455030</v>
+      </c>
+      <c r="E16" t="str">
+        <v>HUAWEI Pura 80 Ultra 12+512</v>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2026-01-05 10:08:25</v>
+      </c>
+      <c r="B17" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D17" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno13-5g-512-gb-luminous-blue/p/100391948</v>
+      </c>
+      <c r="E17" t="str">
+        <v>OPPO Reno 13 12+512</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2026-01-05 10:08:29</v>
+      </c>
+      <c r="B18" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D18" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno-14f-5g-256-gb-luminous-green/p/100461328</v>
+      </c>
+      <c r="E18" t="str">
+        <v>OPPO Reno 14F 12+256</v>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2026-01-05 10:08:33</v>
+      </c>
+      <c r="B19" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D19" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-a56-5g-256-gb-awesome-graphite/p/100396751</v>
+      </c>
+      <c r="E19" t="str">
+        <v>SAMSUNG A56 8+256</v>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2026-01-05 10:08:37</v>
+      </c>
+      <c r="B20" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D20" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-plus-5g-6-7-inch-256gb-onyx-black/p/100355371</v>
+      </c>
+      <c r="E20" t="str">
+        <v>SAMSUNG S24 Plus 12+256</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2026-01-05 10:08:42</v>
+      </c>
+      <c r="B21" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D21" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-plus-5g-6-7-inch-512gb-amber-yellow/p/100355358</v>
+      </c>
+      <c r="E21" t="str">
+        <v>SAMSUNG S24 Plus 12+512</v>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2026-01-05 10:08:47</v>
+      </c>
+      <c r="B22" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D22" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-1tb-titanium-green/p/100363754</v>
+      </c>
+      <c r="E22" t="str">
+        <v>SAMSUNG S24 Ultra 12+1024</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2026-01-05 10:08:51</v>
+      </c>
+      <c r="B23" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D23" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-6-8-inch-256gb-titanium-gray/p/100355419</v>
+      </c>
+      <c r="E23" t="str">
+        <v>SAMSUNG S24 Ultra 12+256</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2026-01-05 10:08:55</v>
+      </c>
+      <c r="B24" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D24" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-6-8-inch-512gb-titanium-violet/p/100355425</v>
+      </c>
+      <c r="E24" t="str">
+        <v>SAMSUNG S24 Ultra 12+512</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2026-01-05 10:08:59</v>
+      </c>
+      <c r="B25" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D25" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-5g-128-gb-navy/p/100392590</v>
+      </c>
+      <c r="E25" t="str">
+        <v>SAMSUNG S25 12+128</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2026-01-05 10:09:03</v>
+      </c>
+      <c r="B26" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D26" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-5g-256-gb-mint/p/100392594</v>
+      </c>
+      <c r="E26" t="str">
+        <v>SAMSUNG S25 12+256</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2026-01-05 10:09:08</v>
+      </c>
+      <c r="B27" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D27" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-fe-5g-256-gb-navy/p/100474886</v>
+      </c>
+      <c r="E27" t="str">
+        <v>SAMSUNG S25 FE 8+256</v>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2026-01-05 10:09:12</v>
+      </c>
+      <c r="B28" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D28" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-plus-5g-256-gb-mint/p/100392595</v>
+      </c>
+      <c r="E28" t="str">
+        <v>SAMSUNG S25 Plus 12+256</v>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2026-01-05 10:09:16</v>
+      </c>
+      <c r="B29" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D29" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-plus-5g-512-gb-navy/p/100392605</v>
+      </c>
+      <c r="E29" t="str">
+        <v>SAMSUNG S25 Plus 12+512</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2026-01-05 10:09:20</v>
+      </c>
+      <c r="B30" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D30" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-ultra-5g-256-gb-titanium-black/p/100392607</v>
+      </c>
+      <c r="E30" t="str">
+        <v>SAMSUNG S25 Ultra 12+256</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2026-01-05 10:09:24</v>
+      </c>
+      <c r="B31" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D31" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-ultra-5g-512-gb-titanium-black/p/100392613</v>
+      </c>
+      <c r="E31" t="str">
+        <v>SAMSUNG S25 Ultra 12+512</v>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2026-01-05 10:09:28</v>
+      </c>
+      <c r="B32" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D32" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-z-fold-7-5g-256-gb-blue-shadow/p/100455996</v>
+      </c>
+      <c r="E32" t="str">
+        <v>SAMSUNG Z Fold 7 12+256</v>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2026-01-05 10:09:32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D33" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-z-fold-7-5g-512-gb-blue-shadow/p/100455994</v>
+      </c>
+      <c r="E33" t="str">
+        <v>SAMSUNG Z Fold 7 12+512</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>7349</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2026-01-05 10:09:37</v>
+      </c>
+      <c r="B34" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D34" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-5g-256-gb-black/p/100476401</v>
+      </c>
+      <c r="E34" t="str">
+        <v>XIAOMI 15T 12+256</v>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2026-01-05 10:09:42</v>
+      </c>
+      <c r="B35" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D35" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-pro-5g-512-gb-gray/p/100476393</v>
+      </c>
+      <c r="E35" t="str">
+        <v>XIAOMI 15T Pro 12+512</v>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2026-01-05 10:09:46</v>
+      </c>
+      <c r="B36" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D36" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15-5g-512-gb-white/p/100396373</v>
+      </c>
+      <c r="E36" t="str">
+        <v>XIAOMI Xiaomi 15 12+512</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2026-01-05 10:09:50</v>
+      </c>
+      <c r="B37" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D37" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15-ultra-5g-512-gb-black/p/100396368</v>
+      </c>
+      <c r="E37" t="str">
+        <v>XIAOMI Xiaomi 15 Ultra 12+512</v>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v>4099</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G37"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/prodinfo/mea/sa/output/res20260105.xlsx
+++ b/prodinfo/mea/sa/output/res20260105.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,16 +427,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-05 10:07:19</v>
+        <v>2026-01-05 10:27:25</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>
       </c>
       <c r="C2" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D2" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/apple-iphone-17-pro-5g-6-3-inch-1-tb-cosmic-orange/p/100460359</v>
+        <v>https://www.jarir.com/sa-en/apple-iphone-17-pro-smartphones-666740.html</v>
       </c>
       <c r="E2" t="str">
         <v>APPLE iPhone 17 Pro 12+1024</v>
@@ -445,21 +445,21 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <v>7199</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-05 10:07:24</v>
+        <v>2026-01-05 10:27:30</v>
       </c>
       <c r="B3" t="str">
         <v>沙特</v>
       </c>
       <c r="C3" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D3" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/apple-iphone-17-pro-5g-6-3-inch-256gb-deep-blue/p/100460369</v>
+        <v>https://www.jarir.com/sa-en/apple-iphone-17-pro-smartphones-666717.html</v>
       </c>
       <c r="E3" t="str">
         <v>APPLE iPhone 17 Pro 12+256</v>
@@ -468,21 +468,21 @@
         <v/>
       </c>
       <c r="G3" t="str">
-        <v>5199</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2026-01-05 10:07:28</v>
+        <v>2026-01-05 10:27:35</v>
       </c>
       <c r="B4" t="str">
         <v>沙特</v>
       </c>
       <c r="C4" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D4" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/apple-iphone-17-pro-5g-6-3-inch-512gb-deep-blue/p/100460646</v>
+        <v>https://www.jarir.com/sa-en/apple-iphone-17-pro-smartphones-666727.html</v>
       </c>
       <c r="E4" t="str">
         <v>APPLE iPhone 17 Pro 12+512</v>
@@ -491,771 +491,426 @@
         <v/>
       </c>
       <c r="G4" t="str">
-        <v>6199</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2026-01-05 10:07:32</v>
+        <v>2026-01-05 10:27:40</v>
       </c>
       <c r="B5" t="str">
         <v>沙特</v>
       </c>
       <c r="C5" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D5" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-5g-256-gb-desert-gold/p/100415761</v>
+        <v>https://www.jarir.com/sa-en/honor-magic8-pro-smartphones-671189.html</v>
       </c>
       <c r="E5" t="str">
-        <v>HONOR 400 12+256</v>
+        <v>HONOR Magic 8 Pro 12+512</v>
       </c>
       <c r="F5" t="str">
         <v/>
       </c>
       <c r="G5" t="str">
-        <v>1399</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2026-01-05 10:07:37</v>
+        <v>2026-01-05 10:27:44</v>
       </c>
       <c r="B6" t="str">
         <v>沙特</v>
       </c>
       <c r="C6" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D6" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-pro-5g-512-gb-midnight-black/p/100415747</v>
+        <v>https://www.jarir.com/sa-en/honor-magic-v3-smartphones-663456.html</v>
       </c>
       <c r="E6" t="str">
-        <v>HONOR 400 Pro 12+512</v>
+        <v>HONOR Magic V5 16+512</v>
       </c>
       <c r="F6" t="str">
         <v/>
       </c>
       <c r="G6" t="str">
-        <v>2399</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2026-01-05 10:07:41</v>
+        <v>2026-01-05 10:27:48</v>
       </c>
       <c r="B7" t="str">
         <v>沙特</v>
       </c>
       <c r="C7" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D7" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-magic-8-pro-5g-512-gb-sunrise-gold/p/100487672</v>
+        <v>https://www.jarir.com/sa-en/huawei-mate-xt-smartphones-652971.html</v>
       </c>
       <c r="E7" t="str">
-        <v>HONOR Magic 8 Pro 12+512</v>
+        <v>HUAWEI Mate XT 16+1024</v>
       </c>
       <c r="F7" t="str">
         <v/>
       </c>
       <c r="G7" t="str">
-        <v>4199</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2026-01-05 10:07:45</v>
+        <v>2026-01-05 10:27:52</v>
       </c>
       <c r="B8" t="str">
         <v>沙特</v>
       </c>
       <c r="C8" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D8" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9c-5g-256gb-titanium-black/p/100389394</v>
+        <v>https://www.jarir.com/sa-en/huawei-pura-80-smartphones-664946.html</v>
       </c>
       <c r="E8" t="str">
-        <v>HONOR X9C 12+256</v>
+        <v>HUAWEI Pura 80 12+256</v>
       </c>
       <c r="F8" t="str">
         <v/>
       </c>
       <c r="G8" t="str">
-        <v>1149</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2026-01-05 10:07:50</v>
+        <v>2026-01-05 10:27:56</v>
       </c>
       <c r="B9" t="str">
         <v>沙特</v>
       </c>
       <c r="C9" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D9" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9d-5g-256-gb-reddish-brown/p/100477711</v>
+        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662079.html</v>
       </c>
       <c r="E9" t="str">
-        <v>HONOR X9D 12+256</v>
+        <v>HUAWEI Pura 80 Pro 12+512</v>
       </c>
       <c r="F9" t="str">
         <v/>
       </c>
       <c r="G9" t="str">
-        <v>1399</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2026-01-05 10:07:55</v>
+        <v>2026-01-05 10:28:00</v>
       </c>
       <c r="B10" t="str">
         <v>沙特</v>
       </c>
       <c r="C10" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D10" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-4g-lte-256-gb-black/p/100392611</v>
+        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662090.html</v>
       </c>
       <c r="E10" t="str">
-        <v>HUAWEI nova 13  12+256</v>
+        <v>HUAWEI Pura 80 Ultra 16+512</v>
       </c>
       <c r="F10" t="str">
         <v/>
       </c>
       <c r="G10" t="str">
-        <v>899</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2026-01-05 10:07:59</v>
+        <v>2026-01-05 10:28:05</v>
       </c>
       <c r="B11" t="str">
         <v>沙特</v>
       </c>
       <c r="C11" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D11" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-pro-4g-lte-512-gb-white/p/100392622</v>
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s24-ultra-smartphones-629684.html</v>
       </c>
       <c r="E11" t="str">
-        <v>HUAWEI nova 13 Pro 12+512</v>
+        <v>SAMSUNG S24 Ultra 12+256</v>
       </c>
       <c r="F11" t="str">
         <v/>
       </c>
       <c r="G11" t="str">
-        <v>1649</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2026-01-05 10:08:04</v>
+        <v>2026-01-05 10:28:09</v>
       </c>
       <c r="B12" t="str">
         <v>沙特</v>
       </c>
       <c r="C12" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D12" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-4g-lte-256-gb-white/p/100477716</v>
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s24-ultra-smartphones-629693.html</v>
       </c>
       <c r="E12" t="str">
-        <v>HUAWEI nova 14 12+256</v>
+        <v>SAMSUNG S24 Ultra 12+512</v>
       </c>
       <c r="F12" t="str">
         <v/>
       </c>
       <c r="G12" t="str">
-        <v>1299</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2026-01-05 10:08:08</v>
+        <v>2026-01-05 10:28:13</v>
       </c>
       <c r="B13" t="str">
         <v>沙特</v>
       </c>
       <c r="C13" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D13" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-pro-4g-lte-512-gb-black/p/100477715</v>
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650984.html</v>
       </c>
       <c r="E13" t="str">
-        <v>HUAWEI nova 14 Pro 12+512</v>
+        <v>SAMSUNG S25 12+128</v>
       </c>
       <c r="F13" t="str">
         <v/>
       </c>
       <c r="G13" t="str">
-        <v>1999</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2026-01-05 10:08:12</v>
+        <v>2026-01-05 10:28:18</v>
       </c>
       <c r="B14" t="str">
         <v>沙特</v>
       </c>
       <c r="C14" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D14" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-4g-lte-256-gb-black/p/100466488</v>
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650999.html</v>
       </c>
       <c r="E14" t="str">
-        <v>HUAWEI Pura 80 12+256</v>
+        <v>SAMSUNG S25 12+256</v>
       </c>
       <c r="F14" t="str">
         <v/>
       </c>
       <c r="G14" t="str">
-        <v>2299</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2026-01-05 10:08:17</v>
+        <v>2026-01-05 10:28:24</v>
       </c>
       <c r="B15" t="str">
         <v>沙特</v>
       </c>
       <c r="C15" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D15" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-pro-4g-lte-512-gb-glazed-black/p/100455032</v>
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650986.html</v>
       </c>
       <c r="E15" t="str">
-        <v>HUAWEI Pura 80 Pro 12+512</v>
+        <v>SAMSUNG S25 Plus 12+256</v>
       </c>
       <c r="F15" t="str">
         <v/>
       </c>
       <c r="G15" t="str">
-        <v>2899</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2026-01-05 10:08:21</v>
+        <v>2026-01-05 10:28:29</v>
       </c>
       <c r="B16" t="str">
         <v>沙特</v>
       </c>
       <c r="C16" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D16" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-ultra-4g-lte-512-gb-prestige-gold/p/100455030</v>
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650952.html</v>
       </c>
       <c r="E16" t="str">
-        <v>HUAWEI Pura 80 Ultra 12+512</v>
+        <v>SAMSUNG S25 Plus 12+512</v>
       </c>
       <c r="F16" t="str">
         <v/>
       </c>
       <c r="G16" t="str">
-        <v>4099</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2026-01-05 10:08:25</v>
+        <v>2026-01-05 10:28:34</v>
       </c>
       <c r="B17" t="str">
         <v>沙特</v>
       </c>
       <c r="C17" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D17" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno13-5g-512-gb-luminous-blue/p/100391948</v>
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-ultra-smartphones-650943.html</v>
       </c>
       <c r="E17" t="str">
-        <v>OPPO Reno 13 12+512</v>
+        <v>SAMSUNG S25 Ultra 12+256</v>
       </c>
       <c r="F17" t="str">
         <v/>
       </c>
       <c r="G17" t="str">
-        <v>1649</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2026-01-05 10:08:29</v>
+        <v>2026-01-05 10:28:40</v>
       </c>
       <c r="B18" t="str">
         <v>沙特</v>
       </c>
       <c r="C18" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D18" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno-14f-5g-256-gb-luminous-green/p/100461328</v>
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-ultra-smartphones-650937.html</v>
       </c>
       <c r="E18" t="str">
-        <v>OPPO Reno 14F 12+256</v>
+        <v>SAMSUNG S25 Ultra 12+512</v>
       </c>
       <c r="F18" t="str">
         <v/>
       </c>
       <c r="G18" t="str">
-        <v>1399</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2026-01-05 10:08:33</v>
+        <v>2026-01-05 10:28:46</v>
       </c>
       <c r="B19" t="str">
         <v>沙特</v>
       </c>
       <c r="C19" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D19" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-a56-5g-256-gb-awesome-graphite/p/100396751</v>
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-z-fold7-smartphones-661880.html</v>
       </c>
       <c r="E19" t="str">
-        <v>SAMSUNG A56 8+256</v>
+        <v>SAMSUNG Z Fold 7 12+256</v>
       </c>
       <c r="F19" t="str">
         <v/>
       </c>
       <c r="G19" t="str">
-        <v>1299</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2026-01-05 10:08:37</v>
+        <v>2026-01-05 10:28:51</v>
       </c>
       <c r="B20" t="str">
         <v>沙特</v>
       </c>
       <c r="C20" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D20" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-plus-5g-6-7-inch-256gb-onyx-black/p/100355371</v>
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-z-fold7-smartphones-661870.html</v>
       </c>
       <c r="E20" t="str">
-        <v>SAMSUNG S24 Plus 12+256</v>
+        <v>SAMSUNG Z Fold 7 12+512</v>
       </c>
       <c r="F20" t="str">
         <v/>
       </c>
       <c r="G20" t="str">
-        <v>2399</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2026-01-05 10:08:42</v>
+        <v>2026-01-05 10:28:57</v>
       </c>
       <c r="B21" t="str">
         <v>沙特</v>
       </c>
       <c r="C21" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D21" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-plus-5g-6-7-inch-512gb-amber-yellow/p/100355358</v>
+        <v>https://www.jarir.com/sa-en/xiaomi-15-smartphones-654044.html</v>
       </c>
       <c r="E21" t="str">
-        <v>SAMSUNG S24 Plus 12+512</v>
+        <v>XIAOMI Xiaomi 15 12+512</v>
       </c>
       <c r="F21" t="str">
         <v/>
       </c>
       <c r="G21" t="str">
-        <v>1350</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2026-01-05 10:08:47</v>
+        <v>2026-01-05 10:29:06</v>
       </c>
       <c r="B22" t="str">
         <v>沙特</v>
       </c>
       <c r="C22" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D22" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-1tb-titanium-green/p/100363754</v>
+        <v>https://www.jarir.com/sa-en/xiaomi-15-ultra-smartphones-654014.html</v>
       </c>
       <c r="E22" t="str">
-        <v>SAMSUNG S24 Ultra 12+1024</v>
+        <v>XIAOMI Xiaomi 15 Ultra 16+512</v>
       </c>
       <c r="F22" t="str">
         <v/>
       </c>
       <c r="G22" t="str">
-        <v>6899</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>2026-01-05 10:08:51</v>
-      </c>
-      <c r="B23" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C23" t="str">
-        <v>Extra</v>
-      </c>
-      <c r="D23" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-6-8-inch-256gb-titanium-gray/p/100355419</v>
-      </c>
-      <c r="E23" t="str">
-        <v>SAMSUNG S24 Ultra 12+256</v>
-      </c>
-      <c r="F23" t="str">
-        <v/>
-      </c>
-      <c r="G23" t="str">
-        <v>3099</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>2026-01-05 10:08:55</v>
-      </c>
-      <c r="B24" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C24" t="str">
-        <v>Extra</v>
-      </c>
-      <c r="D24" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-6-8-inch-512gb-titanium-violet/p/100355425</v>
-      </c>
-      <c r="E24" t="str">
-        <v>SAMSUNG S24 Ultra 12+512</v>
-      </c>
-      <c r="F24" t="str">
-        <v/>
-      </c>
-      <c r="G24" t="str">
-        <v>3399</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>2026-01-05 10:08:59</v>
-      </c>
-      <c r="B25" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C25" t="str">
-        <v>Extra</v>
-      </c>
-      <c r="D25" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-5g-128-gb-navy/p/100392590</v>
-      </c>
-      <c r="E25" t="str">
-        <v>SAMSUNG S25 12+128</v>
-      </c>
-      <c r="F25" t="str">
-        <v/>
-      </c>
-      <c r="G25" t="str">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>2026-01-05 10:09:03</v>
-      </c>
-      <c r="B26" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C26" t="str">
-        <v>Extra</v>
-      </c>
-      <c r="D26" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-5g-256-gb-mint/p/100392594</v>
-      </c>
-      <c r="E26" t="str">
-        <v>SAMSUNG S25 12+256</v>
-      </c>
-      <c r="F26" t="str">
-        <v/>
-      </c>
-      <c r="G26" t="str">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>2026-01-05 10:09:08</v>
-      </c>
-      <c r="B27" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C27" t="str">
-        <v>Extra</v>
-      </c>
-      <c r="D27" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-fe-5g-256-gb-navy/p/100474886</v>
-      </c>
-      <c r="E27" t="str">
-        <v>SAMSUNG S25 FE 8+256</v>
-      </c>
-      <c r="F27" t="str">
-        <v/>
-      </c>
-      <c r="G27" t="str">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>2026-01-05 10:09:12</v>
-      </c>
-      <c r="B28" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C28" t="str">
-        <v>Extra</v>
-      </c>
-      <c r="D28" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-plus-5g-256-gb-mint/p/100392595</v>
-      </c>
-      <c r="E28" t="str">
-        <v>SAMSUNG S25 Plus 12+256</v>
-      </c>
-      <c r="F28" t="str">
-        <v/>
-      </c>
-      <c r="G28" t="str">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>2026-01-05 10:09:16</v>
-      </c>
-      <c r="B29" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C29" t="str">
-        <v>Extra</v>
-      </c>
-      <c r="D29" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-plus-5g-512-gb-navy/p/100392605</v>
-      </c>
-      <c r="E29" t="str">
-        <v>SAMSUNG S25 Plus 12+512</v>
-      </c>
-      <c r="F29" t="str">
-        <v/>
-      </c>
-      <c r="G29" t="str">
-        <v>3999</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>2026-01-05 10:09:20</v>
-      </c>
-      <c r="B30" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C30" t="str">
-        <v>Extra</v>
-      </c>
-      <c r="D30" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-ultra-5g-256-gb-titanium-black/p/100392607</v>
-      </c>
-      <c r="E30" t="str">
-        <v>SAMSUNG S25 Ultra 12+256</v>
-      </c>
-      <c r="F30" t="str">
-        <v/>
-      </c>
-      <c r="G30" t="str">
-        <v>3599</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>2026-01-05 10:09:24</v>
-      </c>
-      <c r="B31" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C31" t="str">
-        <v>Extra</v>
-      </c>
-      <c r="D31" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-ultra-5g-512-gb-titanium-black/p/100392613</v>
-      </c>
-      <c r="E31" t="str">
-        <v>SAMSUNG S25 Ultra 12+512</v>
-      </c>
-      <c r="F31" t="str">
-        <v/>
-      </c>
-      <c r="G31" t="str">
-        <v>4099</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>2026-01-05 10:09:28</v>
-      </c>
-      <c r="B32" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C32" t="str">
-        <v>Extra</v>
-      </c>
-      <c r="D32" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-z-fold-7-5g-256-gb-blue-shadow/p/100455996</v>
-      </c>
-      <c r="E32" t="str">
-        <v>SAMSUNG Z Fold 7 12+256</v>
-      </c>
-      <c r="F32" t="str">
-        <v/>
-      </c>
-      <c r="G32" t="str">
-        <v>6899</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>2026-01-05 10:09:32</v>
-      </c>
-      <c r="B33" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C33" t="str">
-        <v>Extra</v>
-      </c>
-      <c r="D33" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-z-fold-7-5g-512-gb-blue-shadow/p/100455994</v>
-      </c>
-      <c r="E33" t="str">
-        <v>SAMSUNG Z Fold 7 12+512</v>
-      </c>
-      <c r="F33" t="str">
-        <v/>
-      </c>
-      <c r="G33" t="str">
-        <v>7349</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>2026-01-05 10:09:37</v>
-      </c>
-      <c r="B34" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C34" t="str">
-        <v>Extra</v>
-      </c>
-      <c r="D34" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-5g-256-gb-black/p/100476401</v>
-      </c>
-      <c r="E34" t="str">
-        <v>XIAOMI 15T 12+256</v>
-      </c>
-      <c r="F34" t="str">
-        <v/>
-      </c>
-      <c r="G34" t="str">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>2026-01-05 10:09:42</v>
-      </c>
-      <c r="B35" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C35" t="str">
-        <v>Extra</v>
-      </c>
-      <c r="D35" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-pro-5g-512-gb-gray/p/100476393</v>
-      </c>
-      <c r="E35" t="str">
-        <v>XIAOMI 15T Pro 12+512</v>
-      </c>
-      <c r="F35" t="str">
-        <v/>
-      </c>
-      <c r="G35" t="str">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>2026-01-05 10:09:46</v>
-      </c>
-      <c r="B36" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C36" t="str">
-        <v>Extra</v>
-      </c>
-      <c r="D36" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15-5g-512-gb-white/p/100396373</v>
-      </c>
-      <c r="E36" t="str">
-        <v>XIAOMI Xiaomi 15 12+512</v>
-      </c>
-      <c r="F36" t="str">
-        <v/>
-      </c>
-      <c r="G36" t="str">
-        <v>2799</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>2026-01-05 10:09:50</v>
-      </c>
-      <c r="B37" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C37" t="str">
-        <v>Extra</v>
-      </c>
-      <c r="D37" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15-ultra-5g-512-gb-black/p/100396368</v>
-      </c>
-      <c r="E37" t="str">
-        <v>XIAOMI Xiaomi 15 Ultra 12+512</v>
-      </c>
-      <c r="F37" t="str">
-        <v/>
-      </c>
-      <c r="G37" t="str">
-        <v>4099</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G37"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G22"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/prodinfo/mea/sa/output/res20260105.xlsx
+++ b/prodinfo/mea/sa/output/res20260105.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-05 10:27:25</v>
+        <v>2026-01-05 10:34:26</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>
@@ -445,12 +445,12 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <v>NaN</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-05 10:27:30</v>
+        <v>2026-01-05 10:34:31</v>
       </c>
       <c r="B3" t="str">
         <v>沙特</v>
@@ -468,449 +468,12 @@
         <v/>
       </c>
       <c r="G3" t="str">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2026-01-05 10:27:35</v>
-      </c>
-      <c r="B4" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D4" t="str">
-        <v>https://www.jarir.com/sa-en/apple-iphone-17-pro-smartphones-666727.html</v>
-      </c>
-      <c r="E4" t="str">
-        <v>APPLE iPhone 17 Pro 12+512</v>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>2026-01-05 10:27:40</v>
-      </c>
-      <c r="B5" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D5" t="str">
-        <v>https://www.jarir.com/sa-en/honor-magic8-pro-smartphones-671189.html</v>
-      </c>
-      <c r="E5" t="str">
-        <v>HONOR Magic 8 Pro 12+512</v>
-      </c>
-      <c r="F5" t="str">
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>2026-01-05 10:27:44</v>
-      </c>
-      <c r="B6" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D6" t="str">
-        <v>https://www.jarir.com/sa-en/honor-magic-v3-smartphones-663456.html</v>
-      </c>
-      <c r="E6" t="str">
-        <v>HONOR Magic V5 16+512</v>
-      </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>2026-01-05 10:27:48</v>
-      </c>
-      <c r="B7" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D7" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-mate-xt-smartphones-652971.html</v>
-      </c>
-      <c r="E7" t="str">
-        <v>HUAWEI Mate XT 16+1024</v>
-      </c>
-      <c r="F7" t="str">
-        <v/>
-      </c>
-      <c r="G7" t="str">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>2026-01-05 10:27:52</v>
-      </c>
-      <c r="B8" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D8" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-pura-80-smartphones-664946.html</v>
-      </c>
-      <c r="E8" t="str">
-        <v>HUAWEI Pura 80 12+256</v>
-      </c>
-      <c r="F8" t="str">
-        <v/>
-      </c>
-      <c r="G8" t="str">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>2026-01-05 10:27:56</v>
-      </c>
-      <c r="B9" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D9" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662079.html</v>
-      </c>
-      <c r="E9" t="str">
-        <v>HUAWEI Pura 80 Pro 12+512</v>
-      </c>
-      <c r="F9" t="str">
-        <v/>
-      </c>
-      <c r="G9" t="str">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>2026-01-05 10:28:00</v>
-      </c>
-      <c r="B10" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D10" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662090.html</v>
-      </c>
-      <c r="E10" t="str">
-        <v>HUAWEI Pura 80 Ultra 16+512</v>
-      </c>
-      <c r="F10" t="str">
-        <v/>
-      </c>
-      <c r="G10" t="str">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>2026-01-05 10:28:05</v>
-      </c>
-      <c r="B11" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D11" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s24-ultra-smartphones-629684.html</v>
-      </c>
-      <c r="E11" t="str">
-        <v>SAMSUNG S24 Ultra 12+256</v>
-      </c>
-      <c r="F11" t="str">
-        <v/>
-      </c>
-      <c r="G11" t="str">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>2026-01-05 10:28:09</v>
-      </c>
-      <c r="B12" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D12" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s24-ultra-smartphones-629693.html</v>
-      </c>
-      <c r="E12" t="str">
-        <v>SAMSUNG S24 Ultra 12+512</v>
-      </c>
-      <c r="F12" t="str">
-        <v/>
-      </c>
-      <c r="G12" t="str">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>2026-01-05 10:28:13</v>
-      </c>
-      <c r="B13" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D13" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650984.html</v>
-      </c>
-      <c r="E13" t="str">
-        <v>SAMSUNG S25 12+128</v>
-      </c>
-      <c r="F13" t="str">
-        <v/>
-      </c>
-      <c r="G13" t="str">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>2026-01-05 10:28:18</v>
-      </c>
-      <c r="B14" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D14" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650999.html</v>
-      </c>
-      <c r="E14" t="str">
-        <v>SAMSUNG S25 12+256</v>
-      </c>
-      <c r="F14" t="str">
-        <v/>
-      </c>
-      <c r="G14" t="str">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>2026-01-05 10:28:24</v>
-      </c>
-      <c r="B15" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D15" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650986.html</v>
-      </c>
-      <c r="E15" t="str">
-        <v>SAMSUNG S25 Plus 12+256</v>
-      </c>
-      <c r="F15" t="str">
-        <v/>
-      </c>
-      <c r="G15" t="str">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>2026-01-05 10:28:29</v>
-      </c>
-      <c r="B16" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D16" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650952.html</v>
-      </c>
-      <c r="E16" t="str">
-        <v>SAMSUNG S25 Plus 12+512</v>
-      </c>
-      <c r="F16" t="str">
-        <v/>
-      </c>
-      <c r="G16" t="str">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>2026-01-05 10:28:34</v>
-      </c>
-      <c r="B17" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D17" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-ultra-smartphones-650943.html</v>
-      </c>
-      <c r="E17" t="str">
-        <v>SAMSUNG S25 Ultra 12+256</v>
-      </c>
-      <c r="F17" t="str">
-        <v/>
-      </c>
-      <c r="G17" t="str">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>2026-01-05 10:28:40</v>
-      </c>
-      <c r="B18" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D18" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-ultra-smartphones-650937.html</v>
-      </c>
-      <c r="E18" t="str">
-        <v>SAMSUNG S25 Ultra 12+512</v>
-      </c>
-      <c r="F18" t="str">
-        <v/>
-      </c>
-      <c r="G18" t="str">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>2026-01-05 10:28:46</v>
-      </c>
-      <c r="B19" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C19" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D19" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-z-fold7-smartphones-661880.html</v>
-      </c>
-      <c r="E19" t="str">
-        <v>SAMSUNG Z Fold 7 12+256</v>
-      </c>
-      <c r="F19" t="str">
-        <v/>
-      </c>
-      <c r="G19" t="str">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>2026-01-05 10:28:51</v>
-      </c>
-      <c r="B20" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C20" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D20" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-z-fold7-smartphones-661870.html</v>
-      </c>
-      <c r="E20" t="str">
-        <v>SAMSUNG Z Fold 7 12+512</v>
-      </c>
-      <c r="F20" t="str">
-        <v/>
-      </c>
-      <c r="G20" t="str">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>2026-01-05 10:28:57</v>
-      </c>
-      <c r="B21" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C21" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D21" t="str">
-        <v>https://www.jarir.com/sa-en/xiaomi-15-smartphones-654044.html</v>
-      </c>
-      <c r="E21" t="str">
-        <v>XIAOMI Xiaomi 15 12+512</v>
-      </c>
-      <c r="F21" t="str">
-        <v/>
-      </c>
-      <c r="G21" t="str">
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>2026-01-05 10:29:06</v>
-      </c>
-      <c r="B22" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C22" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D22" t="str">
-        <v>https://www.jarir.com/sa-en/xiaomi-15-ultra-smartphones-654014.html</v>
-      </c>
-      <c r="E22" t="str">
-        <v>XIAOMI Xiaomi 15 Ultra 16+512</v>
-      </c>
-      <c r="F22" t="str">
-        <v/>
-      </c>
-      <c r="G22" t="str">
-        <v>NaN</v>
+        <v>4521</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/prodinfo/mea/sa/output/res20260105.xlsx
+++ b/prodinfo/mea/sa/output/res20260105.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-05 10:34:26</v>
+        <v>2026-01-05 10:35:52</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-05 10:34:31</v>
+        <v>2026-01-05 10:35:57</v>
       </c>
       <c r="B3" t="str">
         <v>沙特</v>
@@ -471,9 +471,446 @@
         <v>4521</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2026-01-05 10:36:02</v>
+      </c>
+      <c r="B4" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D4" t="str">
+        <v>https://www.jarir.com/sa-en/apple-iphone-17-pro-smartphones-666727.html</v>
+      </c>
+      <c r="E4" t="str">
+        <v>APPLE iPhone 17 Pro 12+512</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2026-01-05 10:36:06</v>
+      </c>
+      <c r="B5" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D5" t="str">
+        <v>https://www.jarir.com/sa-en/honor-magic8-pro-smartphones-671189.html</v>
+      </c>
+      <c r="E5" t="str">
+        <v>HONOR Magic 8 Pro 12+512</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2026-01-05 10:36:10</v>
+      </c>
+      <c r="B6" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D6" t="str">
+        <v>https://www.jarir.com/sa-en/honor-magic-v3-smartphones-663456.html</v>
+      </c>
+      <c r="E6" t="str">
+        <v>HONOR Magic V5 16+512</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v>5651</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2026-01-05 10:36:14</v>
+      </c>
+      <c r="B7" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D7" t="str">
+        <v>https://www.jarir.com/sa-en/huawei-mate-xt-smartphones-652971.html</v>
+      </c>
+      <c r="E7" t="str">
+        <v>HUAWEI Mate XT 16+1024</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v>8695</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2026-01-05 10:36:19</v>
+      </c>
+      <c r="B8" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D8" t="str">
+        <v>https://www.jarir.com/sa-en/huawei-pura-80-smartphones-664946.html</v>
+      </c>
+      <c r="E8" t="str">
+        <v>HUAWEI Pura 80 12+256</v>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2026-01-05 10:36:23</v>
+      </c>
+      <c r="B9" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D9" t="str">
+        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662079.html</v>
+      </c>
+      <c r="E9" t="str">
+        <v>HUAWEI Pura 80 Pro 12+512</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2026-01-05 10:36:30</v>
+      </c>
+      <c r="B10" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D10" t="str">
+        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662090.html</v>
+      </c>
+      <c r="E10" t="str">
+        <v>HUAWEI Pura 80 Ultra 16+512</v>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2026-01-05 10:36:36</v>
+      </c>
+      <c r="B11" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D11" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s24-ultra-smartphones-629684.html</v>
+      </c>
+      <c r="E11" t="str">
+        <v>SAMSUNG S24 Ultra 12+256</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2026-01-05 10:36:40</v>
+      </c>
+      <c r="B12" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D12" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s24-ultra-smartphones-629693.html</v>
+      </c>
+      <c r="E12" t="str">
+        <v>SAMSUNG S24 Ultra 12+512</v>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2026-01-05 10:36:44</v>
+      </c>
+      <c r="B13" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D13" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650984.html</v>
+      </c>
+      <c r="E13" t="str">
+        <v>SAMSUNG S25 12+128</v>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2026-01-05 10:36:48</v>
+      </c>
+      <c r="B14" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D14" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650999.html</v>
+      </c>
+      <c r="E14" t="str">
+        <v>SAMSUNG S25 12+256</v>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2026-01-05 10:36:52</v>
+      </c>
+      <c r="B15" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D15" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650986.html</v>
+      </c>
+      <c r="E15" t="str">
+        <v>SAMSUNG S25 Plus 12+256</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2026-01-05 10:36:56</v>
+      </c>
+      <c r="B16" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D16" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650952.html</v>
+      </c>
+      <c r="E16" t="str">
+        <v>SAMSUNG S25 Plus 12+512</v>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2026-01-05 10:37:00</v>
+      </c>
+      <c r="B17" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D17" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-ultra-smartphones-650943.html</v>
+      </c>
+      <c r="E17" t="str">
+        <v>SAMSUNG S25 Ultra 12+256</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2026-01-05 10:37:04</v>
+      </c>
+      <c r="B18" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D18" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-ultra-smartphones-650937.html</v>
+      </c>
+      <c r="E18" t="str">
+        <v>SAMSUNG S25 Ultra 12+512</v>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2026-01-05 10:37:09</v>
+      </c>
+      <c r="B19" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D19" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-z-fold7-smartphones-661880.html</v>
+      </c>
+      <c r="E19" t="str">
+        <v>SAMSUNG Z Fold 7 12+256</v>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v>5999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2026-01-05 10:37:13</v>
+      </c>
+      <c r="B20" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D20" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-z-fold7-smartphones-661870.html</v>
+      </c>
+      <c r="E20" t="str">
+        <v>SAMSUNG Z Fold 7 12+512</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v>6390</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2026-01-05 10:37:17</v>
+      </c>
+      <c r="B21" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D21" t="str">
+        <v>https://www.jarir.com/sa-en/xiaomi-15-smartphones-654044.html</v>
+      </c>
+      <c r="E21" t="str">
+        <v>XIAOMI Xiaomi 15 12+512</v>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2026-01-05 10:37:22</v>
+      </c>
+      <c r="B22" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D22" t="str">
+        <v>https://www.jarir.com/sa-en/xiaomi-15-ultra-smartphones-654014.html</v>
+      </c>
+      <c r="E22" t="str">
+        <v>XIAOMI Xiaomi 15 Ultra 16+512</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>3564</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G22"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/prodinfo/mea/sa/output/res20260105.xlsx
+++ b/prodinfo/mea/sa/output/res20260105.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,16 +427,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-05 10:35:52</v>
+        <v>2026-01-05 10:38:56</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>
       </c>
       <c r="C2" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D2" t="str">
-        <v>https://www.jarir.com/sa-en/apple-iphone-17-pro-smartphones-666740.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/apple-iphone-17-pro-5g-6-3-inch-1-tb-cosmic-orange/p/100460359</v>
       </c>
       <c r="E2" t="str">
         <v>APPLE iPhone 17 Pro 12+1024</v>
@@ -445,21 +445,21 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <v>6260</v>
+        <v>7199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-05 10:35:57</v>
+        <v>2026-01-05 10:39:00</v>
       </c>
       <c r="B3" t="str">
         <v>沙特</v>
       </c>
       <c r="C3" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D3" t="str">
-        <v>https://www.jarir.com/sa-en/apple-iphone-17-pro-smartphones-666717.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/apple-iphone-17-pro-5g-6-3-inch-256gb-deep-blue/p/100460369</v>
       </c>
       <c r="E3" t="str">
         <v>APPLE iPhone 17 Pro 12+256</v>
@@ -468,21 +468,21 @@
         <v/>
       </c>
       <c r="G3" t="str">
-        <v>4521</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2026-01-05 10:36:02</v>
+        <v>2026-01-05 10:39:08</v>
       </c>
       <c r="B4" t="str">
         <v>沙特</v>
       </c>
       <c r="C4" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D4" t="str">
-        <v>https://www.jarir.com/sa-en/apple-iphone-17-pro-smartphones-666727.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/apple-iphone-17-pro-5g-6-3-inch-512gb-deep-blue/p/100460646</v>
       </c>
       <c r="E4" t="str">
         <v>APPLE iPhone 17 Pro 12+512</v>
@@ -491,426 +491,1254 @@
         <v/>
       </c>
       <c r="G4" t="str">
-        <v>5390</v>
+        <v>6199</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2026-01-05 10:36:06</v>
+        <v>2026-01-05 10:39:12</v>
       </c>
       <c r="B5" t="str">
         <v>沙特</v>
       </c>
       <c r="C5" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D5" t="str">
-        <v>https://www.jarir.com/sa-en/honor-magic8-pro-smartphones-671189.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-5g-256-gb-desert-gold/p/100415761</v>
       </c>
       <c r="E5" t="str">
-        <v>HONOR Magic 8 Pro 12+512</v>
+        <v>HONOR 400 12+256</v>
       </c>
       <c r="F5" t="str">
         <v/>
       </c>
       <c r="G5" t="str">
-        <v>3651</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2026-01-05 10:36:10</v>
+        <v>2026-01-05 10:39:17</v>
       </c>
       <c r="B6" t="str">
         <v>沙特</v>
       </c>
       <c r="C6" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D6" t="str">
-        <v>https://www.jarir.com/sa-en/honor-magic-v3-smartphones-663456.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-pro-5g-512-gb-midnight-black/p/100415747</v>
       </c>
       <c r="E6" t="str">
-        <v>HONOR Magic V5 16+512</v>
+        <v>HONOR 400 Pro 12+512</v>
       </c>
       <c r="F6" t="str">
         <v/>
       </c>
       <c r="G6" t="str">
-        <v>5651</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2026-01-05 10:36:14</v>
+        <v>2026-01-05 10:39:22</v>
       </c>
       <c r="B7" t="str">
         <v>沙特</v>
       </c>
       <c r="C7" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D7" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-mate-xt-smartphones-652971.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-magic-8-pro-5g-512-gb-sunrise-gold/p/100487672</v>
       </c>
       <c r="E7" t="str">
-        <v>HUAWEI Mate XT 16+1024</v>
+        <v>HONOR Magic 8 Pro 12+512</v>
       </c>
       <c r="F7" t="str">
         <v/>
       </c>
       <c r="G7" t="str">
-        <v>8695</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2026-01-05 10:36:19</v>
+        <v>2026-01-05 10:39:27</v>
       </c>
       <c r="B8" t="str">
         <v>沙特</v>
       </c>
       <c r="C8" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D8" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-pura-80-smartphones-664946.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9c-5g-256gb-titanium-black/p/100389394</v>
       </c>
       <c r="E8" t="str">
-        <v>HUAWEI Pura 80 12+256</v>
+        <v>HONOR X9C 12+256</v>
       </c>
       <c r="F8" t="str">
         <v/>
       </c>
       <c r="G8" t="str">
-        <v>1999</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2026-01-05 10:36:23</v>
+        <v>2026-01-05 10:39:31</v>
       </c>
       <c r="B9" t="str">
         <v>沙特</v>
       </c>
       <c r="C9" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D9" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662079.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9d-5g-256-gb-reddish-brown/p/100477711</v>
       </c>
       <c r="E9" t="str">
-        <v>HUAWEI Pura 80 Pro 12+512</v>
+        <v>HONOR X9D 12+256</v>
       </c>
       <c r="F9" t="str">
         <v/>
       </c>
       <c r="G9" t="str">
-        <v>2521</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2026-01-05 10:36:30</v>
+        <v>2026-01-05 10:39:35</v>
       </c>
       <c r="B10" t="str">
         <v>沙特</v>
       </c>
       <c r="C10" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D10" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662090.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-4g-lte-256-gb-black/p/100392611</v>
       </c>
       <c r="E10" t="str">
-        <v>HUAWEI Pura 80 Ultra 16+512</v>
+        <v>HUAWEI nova 13  12+256</v>
       </c>
       <c r="F10" t="str">
         <v/>
       </c>
       <c r="G10" t="str">
-        <v>3564</v>
+        <v>899</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2026-01-05 10:36:36</v>
+        <v>2026-01-05 10:39:40</v>
       </c>
       <c r="B11" t="str">
         <v>沙特</v>
       </c>
       <c r="C11" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D11" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s24-ultra-smartphones-629684.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-pro-4g-lte-512-gb-white/p/100392622</v>
       </c>
       <c r="E11" t="str">
-        <v>SAMSUNG S24 Ultra 12+256</v>
+        <v>HUAWEI nova 13 Pro 12+512</v>
       </c>
       <c r="F11" t="str">
         <v/>
       </c>
       <c r="G11" t="str">
-        <v>2695</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2026-01-05 10:36:40</v>
+        <v>2026-01-05 10:39:44</v>
       </c>
       <c r="B12" t="str">
         <v>沙特</v>
       </c>
       <c r="C12" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D12" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s24-ultra-smartphones-629693.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-4g-lte-256-gb-white/p/100477716</v>
       </c>
       <c r="E12" t="str">
-        <v>SAMSUNG S24 Ultra 12+512</v>
+        <v>HUAWEI nova 14 12+256</v>
       </c>
       <c r="F12" t="str">
         <v/>
       </c>
       <c r="G12" t="str">
-        <v>2956</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2026-01-05 10:36:44</v>
+        <v>2026-01-05 10:39:49</v>
       </c>
       <c r="B13" t="str">
         <v>沙特</v>
       </c>
       <c r="C13" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D13" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650984.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-pro-4g-lte-512-gb-black/p/100477715</v>
       </c>
       <c r="E13" t="str">
-        <v>SAMSUNG S25 12+128</v>
+        <v>HUAWEI nova 14 Pro 12+512</v>
       </c>
       <c r="F13" t="str">
         <v/>
       </c>
       <c r="G13" t="str">
-        <v>0</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2026-01-05 10:36:48</v>
+        <v>2026-01-05 10:39:54</v>
       </c>
       <c r="B14" t="str">
         <v>沙特</v>
       </c>
       <c r="C14" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D14" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650999.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-4g-lte-256-gb-black/p/100466488</v>
       </c>
       <c r="E14" t="str">
-        <v>SAMSUNG S25 12+256</v>
+        <v>HUAWEI Pura 80 12+256</v>
       </c>
       <c r="F14" t="str">
         <v/>
       </c>
       <c r="G14" t="str">
-        <v>2260</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2026-01-05 10:36:52</v>
+        <v>2026-01-05 10:39:58</v>
       </c>
       <c r="B15" t="str">
         <v>沙特</v>
       </c>
       <c r="C15" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D15" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650986.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-pro-4g-lte-512-gb-glazed-black/p/100455032</v>
       </c>
       <c r="E15" t="str">
-        <v>SAMSUNG S25 Plus 12+256</v>
+        <v>HUAWEI Pura 80 Pro 12+512</v>
       </c>
       <c r="F15" t="str">
         <v/>
       </c>
       <c r="G15" t="str">
-        <v>2869</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2026-01-05 10:36:56</v>
+        <v>2026-01-05 10:40:02</v>
       </c>
       <c r="B16" t="str">
         <v>沙特</v>
       </c>
       <c r="C16" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D16" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650952.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-ultra-4g-lte-512-gb-prestige-gold/p/100455030</v>
       </c>
       <c r="E16" t="str">
-        <v>SAMSUNG S25 Plus 12+512</v>
+        <v>HUAWEI Pura 80 Ultra 12+512</v>
       </c>
       <c r="F16" t="str">
         <v/>
       </c>
       <c r="G16" t="str">
-        <v>3477</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2026-01-05 10:37:00</v>
+        <v>2026-01-05 10:40:07</v>
       </c>
       <c r="B17" t="str">
         <v>沙特</v>
       </c>
       <c r="C17" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D17" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-ultra-smartphones-650943.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno13-5g-512-gb-luminous-blue/p/100391948</v>
       </c>
       <c r="E17" t="str">
-        <v>SAMSUNG S25 Ultra 12+256</v>
+        <v>OPPO Reno 13 12+512</v>
       </c>
       <c r="F17" t="str">
         <v/>
       </c>
       <c r="G17" t="str">
-        <v>3130</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2026-01-05 10:37:04</v>
+        <v>2026-01-05 10:40:12</v>
       </c>
       <c r="B18" t="str">
         <v>沙特</v>
       </c>
       <c r="C18" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D18" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-ultra-smartphones-650937.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno-14f-5g-256-gb-luminous-green/p/100461328</v>
       </c>
       <c r="E18" t="str">
-        <v>SAMSUNG S25 Ultra 12+512</v>
+        <v>OPPO Reno 14F 12+256</v>
       </c>
       <c r="F18" t="str">
         <v/>
       </c>
       <c r="G18" t="str">
-        <v>3564</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2026-01-05 10:37:09</v>
+        <v>2026-01-05 10:40:16</v>
       </c>
       <c r="B19" t="str">
         <v>沙特</v>
       </c>
       <c r="C19" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D19" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-z-fold7-smartphones-661880.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-a56-5g-256-gb-awesome-graphite/p/100396751</v>
       </c>
       <c r="E19" t="str">
-        <v>SAMSUNG Z Fold 7 12+256</v>
+        <v>SAMSUNG A56 8+256</v>
       </c>
       <c r="F19" t="str">
         <v/>
       </c>
       <c r="G19" t="str">
-        <v>5999</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2026-01-05 10:37:13</v>
+        <v>2026-01-05 10:40:20</v>
       </c>
       <c r="B20" t="str">
         <v>沙特</v>
       </c>
       <c r="C20" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D20" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-z-fold7-smartphones-661870.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-plus-5g-6-7-inch-256gb-onyx-black/p/100355371</v>
       </c>
       <c r="E20" t="str">
-        <v>SAMSUNG Z Fold 7 12+512</v>
+        <v>SAMSUNG S24 Plus 12+256</v>
       </c>
       <c r="F20" t="str">
         <v/>
       </c>
       <c r="G20" t="str">
-        <v>6390</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2026-01-05 10:37:17</v>
+        <v>2026-01-05 10:40:26</v>
       </c>
       <c r="B21" t="str">
         <v>沙特</v>
       </c>
       <c r="C21" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D21" t="str">
-        <v>https://www.jarir.com/sa-en/xiaomi-15-smartphones-654044.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-plus-5g-6-7-inch-512gb-amber-yellow/p/100355358</v>
       </c>
       <c r="E21" t="str">
-        <v>XIAOMI Xiaomi 15 12+512</v>
+        <v>SAMSUNG S24 Plus 12+512</v>
       </c>
       <c r="F21" t="str">
         <v/>
       </c>
       <c r="G21" t="str">
-        <v>2434</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2026-01-05 10:37:22</v>
+        <v>2026-01-05 10:40:29</v>
       </c>
       <c r="B22" t="str">
         <v>沙特</v>
       </c>
       <c r="C22" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D22" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-1tb-titanium-green/p/100363754</v>
+      </c>
+      <c r="E22" t="str">
+        <v>SAMSUNG S24 Ultra 12+1024</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2026-01-05 10:40:34</v>
+      </c>
+      <c r="B23" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D23" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-6-8-inch-256gb-titanium-gray/p/100355419</v>
+      </c>
+      <c r="E23" t="str">
+        <v>SAMSUNG S24 Ultra 12+256</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2026-01-05 10:40:38</v>
+      </c>
+      <c r="B24" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D24" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-6-8-inch-512gb-titanium-violet/p/100355425</v>
+      </c>
+      <c r="E24" t="str">
+        <v>SAMSUNG S24 Ultra 12+512</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2026-01-05 10:40:42</v>
+      </c>
+      <c r="B25" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D25" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-5g-128-gb-navy/p/100392590</v>
+      </c>
+      <c r="E25" t="str">
+        <v>SAMSUNG S25 12+128</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2026-01-05 10:40:46</v>
+      </c>
+      <c r="B26" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D26" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-5g-256-gb-mint/p/100392594</v>
+      </c>
+      <c r="E26" t="str">
+        <v>SAMSUNG S25 12+256</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2026-01-05 10:40:51</v>
+      </c>
+      <c r="B27" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D27" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-fe-5g-256-gb-navy/p/100474886</v>
+      </c>
+      <c r="E27" t="str">
+        <v>SAMSUNG S25 FE 8+256</v>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2026-01-05 10:40:55</v>
+      </c>
+      <c r="B28" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D28" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-plus-5g-256-gb-mint/p/100392595</v>
+      </c>
+      <c r="E28" t="str">
+        <v>SAMSUNG S25 Plus 12+256</v>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2026-01-05 10:40:59</v>
+      </c>
+      <c r="B29" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D29" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-plus-5g-512-gb-navy/p/100392605</v>
+      </c>
+      <c r="E29" t="str">
+        <v>SAMSUNG S25 Plus 12+512</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2026-01-05 10:41:03</v>
+      </c>
+      <c r="B30" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D30" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-ultra-5g-256-gb-titanium-black/p/100392607</v>
+      </c>
+      <c r="E30" t="str">
+        <v>SAMSUNG S25 Ultra 12+256</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2026-01-05 10:41:07</v>
+      </c>
+      <c r="B31" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D31" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-ultra-5g-512-gb-titanium-black/p/100392613</v>
+      </c>
+      <c r="E31" t="str">
+        <v>SAMSUNG S25 Ultra 12+512</v>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2026-01-05 10:41:11</v>
+      </c>
+      <c r="B32" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D32" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-z-fold-7-5g-256-gb-blue-shadow/p/100455996</v>
+      </c>
+      <c r="E32" t="str">
+        <v>SAMSUNG Z Fold 7 12+256</v>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2026-01-05 10:41:16</v>
+      </c>
+      <c r="B33" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D33" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-z-fold-7-5g-512-gb-blue-shadow/p/100455994</v>
+      </c>
+      <c r="E33" t="str">
+        <v>SAMSUNG Z Fold 7 12+512</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>7349</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2026-01-05 10:41:21</v>
+      </c>
+      <c r="B34" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D34" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-5g-256-gb-black/p/100476401</v>
+      </c>
+      <c r="E34" t="str">
+        <v>XIAOMI 15T 12+256</v>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2026-01-05 10:41:25</v>
+      </c>
+      <c r="B35" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D35" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-pro-5g-512-gb-gray/p/100476393</v>
+      </c>
+      <c r="E35" t="str">
+        <v>XIAOMI 15T Pro 12+512</v>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2026-01-05 10:41:30</v>
+      </c>
+      <c r="B36" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D36" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15-5g-512-gb-white/p/100396373</v>
+      </c>
+      <c r="E36" t="str">
+        <v>XIAOMI Xiaomi 15 12+512</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2026-01-05 10:41:34</v>
+      </c>
+      <c r="B37" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D37" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15-ultra-5g-512-gb-black/p/100396368</v>
+      </c>
+      <c r="E37" t="str">
+        <v>XIAOMI Xiaomi 15 Ultra 12+512</v>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2026-01-05 10:41:39</v>
+      </c>
+      <c r="B38" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D38" t="str">
+        <v>https://www.jarir.com/sa-en/apple-iphone-17-pro-smartphones-666740.html</v>
+      </c>
+      <c r="E38" t="str">
+        <v>APPLE iPhone 17 Pro 12+1024</v>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v>6260</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2026-01-05 10:41:43</v>
+      </c>
+      <c r="B39" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D39" t="str">
+        <v>https://www.jarir.com/sa-en/apple-iphone-17-pro-smartphones-666717.html</v>
+      </c>
+      <c r="E39" t="str">
+        <v>APPLE iPhone 17 Pro 12+256</v>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2026-01-05 10:41:48</v>
+      </c>
+      <c r="B40" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D40" t="str">
+        <v>https://www.jarir.com/sa-en/apple-iphone-17-pro-smartphones-666727.html</v>
+      </c>
+      <c r="E40" t="str">
+        <v>APPLE iPhone 17 Pro 12+512</v>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>2026-01-05 10:41:52</v>
+      </c>
+      <c r="B41" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D41" t="str">
+        <v>https://www.jarir.com/sa-en/honor-magic8-pro-smartphones-671189.html</v>
+      </c>
+      <c r="E41" t="str">
+        <v>HONOR Magic 8 Pro 12+512</v>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>2026-01-05 10:41:56</v>
+      </c>
+      <c r="B42" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D42" t="str">
+        <v>https://www.jarir.com/sa-en/honor-magic-v3-smartphones-663456.html</v>
+      </c>
+      <c r="E42" t="str">
+        <v>HONOR Magic V5 16+512</v>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v>5651</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2026-01-05 10:42:02</v>
+      </c>
+      <c r="B43" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D43" t="str">
+        <v>https://www.jarir.com/sa-en/huawei-mate-xt-smartphones-652971.html</v>
+      </c>
+      <c r="E43" t="str">
+        <v>HUAWEI Mate XT 16+1024</v>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v>8695</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2026-01-05 10:42:06</v>
+      </c>
+      <c r="B44" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D44" t="str">
+        <v>https://www.jarir.com/sa-en/huawei-pura-80-smartphones-664946.html</v>
+      </c>
+      <c r="E44" t="str">
+        <v>HUAWEI Pura 80 12+256</v>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>2026-01-05 10:42:09</v>
+      </c>
+      <c r="B45" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D45" t="str">
+        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662079.html</v>
+      </c>
+      <c r="E45" t="str">
+        <v>HUAWEI Pura 80 Pro 12+512</v>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>2026-01-05 10:42:15</v>
+      </c>
+      <c r="B46" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D46" t="str">
+        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662090.html</v>
+      </c>
+      <c r="E46" t="str">
+        <v>HUAWEI Pura 80 Ultra 16+512</v>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>2026-01-05 10:42:19</v>
+      </c>
+      <c r="B47" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D47" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s24-ultra-smartphones-629684.html</v>
+      </c>
+      <c r="E47" t="str">
+        <v>SAMSUNG S24 Ultra 12+256</v>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>2026-01-05 10:42:23</v>
+      </c>
+      <c r="B48" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D48" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s24-ultra-smartphones-629693.html</v>
+      </c>
+      <c r="E48" t="str">
+        <v>SAMSUNG S24 Ultra 12+512</v>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>2026-01-05 10:42:28</v>
+      </c>
+      <c r="B49" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D49" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650984.html</v>
+      </c>
+      <c r="E49" t="str">
+        <v>SAMSUNG S25 12+128</v>
+      </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>2026-01-05 10:42:32</v>
+      </c>
+      <c r="B50" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D50" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650999.html</v>
+      </c>
+      <c r="E50" t="str">
+        <v>SAMSUNG S25 12+256</v>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>2026-01-05 10:42:36</v>
+      </c>
+      <c r="B51" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D51" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650986.html</v>
+      </c>
+      <c r="E51" t="str">
+        <v>SAMSUNG S25 Plus 12+256</v>
+      </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>2026-01-05 10:42:41</v>
+      </c>
+      <c r="B52" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D52" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650952.html</v>
+      </c>
+      <c r="E52" t="str">
+        <v>SAMSUNG S25 Plus 12+512</v>
+      </c>
+      <c r="F52" t="str">
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>2026-01-05 10:42:45</v>
+      </c>
+      <c r="B53" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D53" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-ultra-smartphones-650943.html</v>
+      </c>
+      <c r="E53" t="str">
+        <v>SAMSUNG S25 Ultra 12+256</v>
+      </c>
+      <c r="F53" t="str">
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>2026-01-05 10:42:49</v>
+      </c>
+      <c r="B54" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D54" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-ultra-smartphones-650937.html</v>
+      </c>
+      <c r="E54" t="str">
+        <v>SAMSUNG S25 Ultra 12+512</v>
+      </c>
+      <c r="F54" t="str">
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>2026-01-05 10:42:54</v>
+      </c>
+      <c r="B55" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D55" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-z-fold7-smartphones-661880.html</v>
+      </c>
+      <c r="E55" t="str">
+        <v>SAMSUNG Z Fold 7 12+256</v>
+      </c>
+      <c r="F55" t="str">
+        <v/>
+      </c>
+      <c r="G55" t="str">
+        <v>5999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>2026-01-05 10:42:58</v>
+      </c>
+      <c r="B56" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D56" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-z-fold7-smartphones-661870.html</v>
+      </c>
+      <c r="E56" t="str">
+        <v>SAMSUNG Z Fold 7 12+512</v>
+      </c>
+      <c r="F56" t="str">
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <v>6390</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>2026-01-05 10:43:02</v>
+      </c>
+      <c r="B57" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D57" t="str">
+        <v>https://www.jarir.com/sa-en/xiaomi-15-smartphones-654044.html</v>
+      </c>
+      <c r="E57" t="str">
+        <v>XIAOMI Xiaomi 15 12+512</v>
+      </c>
+      <c r="F57" t="str">
+        <v/>
+      </c>
+      <c r="G57" t="str">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>2026-01-05 10:43:06</v>
+      </c>
+      <c r="B58" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D58" t="str">
         <v>https://www.jarir.com/sa-en/xiaomi-15-ultra-smartphones-654014.html</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E58" t="str">
         <v>XIAOMI Xiaomi 15 Ultra 16+512</v>
       </c>
-      <c r="F22" t="str">
-        <v/>
-      </c>
-      <c r="G22" t="str">
+      <c r="F58" t="str">
+        <v/>
+      </c>
+      <c r="G58" t="str">
         <v>3564</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G58"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/prodinfo/mea/sa/output/res20260105.xlsx
+++ b/prodinfo/mea/sa/output/res20260105.xlsx
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-05 11:32:31</v>
+        <v>2026-01-05 11:39:36</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-05 11:32:40</v>
+        <v>2026-01-05 11:39:41</v>
       </c>
       <c r="B3" t="str">
         <v>沙特</v>

--- a/prodinfo/mea/sa/output/res20260105.xlsx
+++ b/prodinfo/mea/sa/output/res20260105.xlsx
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-05 11:39:36</v>
+        <v>2026-01-05 11:58:06</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-05 11:39:41</v>
+        <v>2026-01-05 11:58:10</v>
       </c>
       <c r="B3" t="str">
         <v>沙特</v>
